--- a/Szkic DB.xlsx
+++ b/Szkic DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14FB129-A040-4B98-9A56-A93EF4998796}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE686F18-D0DB-448C-861E-192E6EC7A64E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" xr2:uid="{1EBE01E8-432E-4459-B9A9-5BB792C5DDFD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Projekty</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>czyWyswietlono</t>
+  </si>
+  <si>
+    <t>Sesja logowania !</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,6 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -479,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886EFEDB-8867-4BD3-8E46-BFA592B3291E}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,14 +631,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
